--- a/99_Ye_are_Welcome/99_xls/04_Match_Index_.xlsx
+++ b/99_Ye_are_Welcome/99_xls/04_Match_Index_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gross.DESKTOP-AIRQM2M\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\00_BETAMI\99_Ye_are_welcome\99_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62458A-CF4B-4379-A4C4-46F1505D5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C33B9-4DAE-4470-8806-2A9B47FF13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{39CD3DD3-3440-464D-AB22-5329934B11BE}"/>
   </bookViews>
@@ -195,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -234,6 +227,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,46 +313,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -360,10 +358,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,312 +400,317 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>243052</xdr:colOff>
+      <xdr:colOff>236483</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>124809</xdr:rowOff>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Group 12">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DE40CA-C146-823F-13CB-F754118B5F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74A20F2-8B82-4110-B665-92F35F992B1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="4007069" y="624052"/>
-          <a:ext cx="5741276" cy="2995447"/>
-          <a:chOff x="3402724" y="624052"/>
-          <a:chExt cx="5741276" cy="2995447"/>
+          <a:ext cx="5734707" cy="2883776"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74A20F2-8B82-4110-B665-92F35F992B1F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3402724" y="624052"/>
-            <a:ext cx="5734707" cy="696309"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Do exemplo de 100 variáveis:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>Do exemplo de 100 variáveis:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>Mas imaginha uma lista de 10.000 números aleatórios.. </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>(Database)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>- Como é que você identifica alguns de seus dados mais importantes? </a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="1300" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0405A425-E293-400F-883F-0A69229E2D73}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3402724" y="1372913"/>
-            <a:ext cx="5734707" cy="692116"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mas imagina uma lista de 10.000 números aleatórios. (Database)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>Match traz</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t> a localização de cada dentro da lista de referência (base de dados)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1300" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t>Index traz o conteúdo referente a localização pré-determinada.</a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="1300" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABDCB55-9F9C-4AA0-87CD-DCA5AE75E1F4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3402724" y="2121775"/>
-            <a:ext cx="5734707" cy="964767"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Como é que você identifica alguns de seus dados mais importantes? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>Deste exemplo, quero saber o conteúdo de quaisquer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t> variáveis que contenham um texto, ou que não contenham números em sua constituição ...</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1300" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t>- Esperimenta escrever alguma coisa na base de dados</a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="1300" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="TextBox 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E239F6A-CA21-4637-9B1A-A8DFA6409362}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3409293" y="3120258"/>
-            <a:ext cx="5734707" cy="499241"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Match traz a localização de cada dentro da lista de referência (base de dados)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1"/>
-              <a:t>Meu</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t> Office está em ingles - com pontos separando as casas decimais.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-              <a:t>Em portugues são as funções corresp &amp; indice.</a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="1300" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Index traz o conteúdo referente a localização pré-determinada.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Deste exemplo, quero saber o conteúdo de quaisquer variáveis que contenham um texto, ou que não contenham números em sua constituição ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Experimenta escrever alguma coisa na base de dados</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Meu Office está em inglês - com pontos separando as casas decimais.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Em português são as funções ‘corresp’ &amp; ‘indice’.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Att.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1269,19 +1275,19 @@
   <dimension ref="A1:T245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="10110" topLeftCell="A25"/>
-      <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="10110" topLeftCell="A103"/>
+      <selection activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="12" customWidth="1"/>
     <col min="3" max="4" width="4.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="12" customWidth="1"/>
     <col min="8" max="9" width="2.28515625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
@@ -1292,4584 +1298,4584 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <f ca="1">COUNT(A6:A175)</f>
         <v>100</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f ca="1">COUNT(B6:B175)</f>
         <v>87</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f ca="1">A4-B4</f>
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <f>ROW()</f>
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f ca="1">MAX(D6:D175)</f>
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <f ca="1">IF(ISNUMBER(C6),ROW()-$A$5,"")</f>
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f ca="1">RANDBETWEEN(1,100)+RANDBETWEEN(1,100)/100</f>
-        <v>44.73</v>
-      </c>
-      <c r="C6" s="11">
+        <v>29.33</v>
+      </c>
+      <c r="C6" s="10">
         <f ca="1">IF(ISTEXT(B6),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f ca="1">IF(ISTEXT(B6),MAX(D$5:D5)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" ref="E6:E69" ca="1" si="0">IF(ROW()-$A$5&lt;=$C$5,ROW()-$A$5,"")</f>
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f ca="1">IF(ISNUMBER(E6),MATCH(E6,$D$6:$D$175,0),"")</f>
         <v>15</v>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="21" t="str">
         <f ca="1">IF(ISNUMBER(E6),INDEX($B$6:$D$175,F6,G$5),"")</f>
         <v>a1</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <f t="shared" ref="A7:A70" ca="1" si="1">IF(ISNUMBER(C7),ROW()-$A$5,"")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f t="shared" ref="B7:B70" ca="1" si="2">RANDBETWEEN(1,100)+RANDBETWEEN(1,100)/100</f>
-        <v>14.52</v>
-      </c>
-      <c r="C7" s="11">
+        <v>97.87</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" ref="C7:C22" ca="1" si="3">IF(ISTEXT(B7),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f ca="1">IF(ISTEXT(B7),MAX(D$5:D6)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" ref="F7:F70" ca="1" si="4">IF(ISNUMBER(E7),MATCH(E7,$D$6:$D$175,0),"")</f>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F9" ca="1" si="4">IF(ISNUMBER(E7),MATCH(E7,$D$6:$D$175,0),"")</f>
         <v>16</v>
       </c>
-      <c r="G7" s="22" t="str">
-        <f t="shared" ref="G7:G70" ca="1" si="5">IF(ISNUMBER(E7),INDEX($B$6:$D$175,F7,G$5),"")</f>
+      <c r="G7" s="21" t="str">
+        <f t="shared" ref="G7:G9" ca="1" si="5">IF(ISNUMBER(E7),INDEX($B$6:$D$175,F7,G$5),"")</f>
         <v>a2</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4.08</v>
-      </c>
-      <c r="C8" s="11">
+        <v>77.86</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f ca="1">IF(ISTEXT(B8),MAX(D$5:D7)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" ca="1" si="4"/>
         <v>17</v>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="21" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>a3</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.43</v>
-      </c>
-      <c r="C9" s="11">
+        <v>21.7</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f ca="1">IF(ISTEXT(B9),MAX(D$5:D8)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" ca="1" si="4"/>
         <v>18</v>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>a4</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>40.57</v>
-      </c>
-      <c r="C10" s="11">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f ca="1">IF(ISTEXT(B10),MAX(D$5:D9)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" ref="F10:F73" ca="1" si="6">IF(ISNUMBER(E10),MATCH(E10,$D$6:$D$175,0),"")</f>
         <v>24</v>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="21" t="str">
         <f t="shared" ref="G10:G73" ca="1" si="7">IF(ISNUMBER(E10),INDEX($B$6:$D$175,F10,G$5),"")</f>
         <v>aaaaaaaaaa</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>67.88</v>
-      </c>
-      <c r="C11" s="11">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f ca="1">IF(ISTEXT(B11),MAX(D$5:D10)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>27</v>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="G11" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>a5</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>9.94</v>
-      </c>
-      <c r="C12" s="11">
+        <v>73.23</v>
+      </c>
+      <c r="C12" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f ca="1">IF(ISTEXT(B12),MAX(D$5:D11)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>28</v>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>a6</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>93.67</v>
-      </c>
-      <c r="C13" s="11">
+        <v>75.42</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f ca="1">IF(ISTEXT(B13),MAX(D$5:D12)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>50</v>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>B</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3.46</v>
-      </c>
-      <c r="C14" s="11">
+        <v>78.27</v>
+      </c>
+      <c r="C14" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f ca="1">IF(ISTEXT(B14),MAX(D$5:D13)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>73</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>C</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>7.09</v>
-      </c>
-      <c r="C15" s="11">
+        <v>97.4</v>
+      </c>
+      <c r="C15" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f ca="1">IF(ISTEXT(B15),MAX(D$5:D14)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>dddd</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42.2</v>
-      </c>
-      <c r="C16" s="11">
+        <v>8.76</v>
+      </c>
+      <c r="C16" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f ca="1">IF(ISTEXT(B16),MAX(D$5:D15)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>88</v>
       </c>
-      <c r="G16" s="22" t="str">
+      <c r="G16" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>E</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
     </row>
     <row r="17" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>21.09</v>
-      </c>
-      <c r="C17" s="11">
+        <v>20.51</v>
+      </c>
+      <c r="C17" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f ca="1">IF(ISTEXT(B17),MAX(D$5:D16)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>89</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>53.12</v>
-      </c>
-      <c r="C18" s="11">
+        <v>14.75</v>
+      </c>
+      <c r="C18" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f ca="1">IF(ISTEXT(B18),MAX(D$5:D17)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" ca="1" si="6"/>
         <v>95</v>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>ggggggg</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>95.36</v>
-      </c>
-      <c r="C19" s="11">
+        <v>20.32</v>
+      </c>
+      <c r="C19" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f ca="1">IF(ISTEXT(B19),MAX(D$5:D18)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
     </row>
     <row r="20" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f ca="1">IF(ISTEXT(B20),MAX(D$5:D19)+1,0)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f ca="1">IF(ISTEXT(B21),MAX(D$5:D20)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
     </row>
     <row r="22" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f ca="1">IF(ISTEXT(B22),MAX(D$5:D21)+1,0)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
     <row r="23" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <f t="shared" ref="C23:C38" si="8">IF(ISTEXT(B23),1,0)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f ca="1">IF(ISTEXT(B23),MAX(D$5:D22)+1,0)</f>
         <v>4</v>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
     </row>
     <row r="24" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>82.34</v>
-      </c>
-      <c r="C24" s="11">
+        <v>99.73</v>
+      </c>
+      <c r="C24" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f ca="1">IF(ISTEXT(B24),MAX(D$5:D23)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
     </row>
     <row r="25" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>30.96</v>
-      </c>
-      <c r="C25" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="C25" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f ca="1">IF(ISTEXT(B25),MAX(D$5:D24)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>76.56</v>
-      </c>
-      <c r="C26" s="11">
+        <v>15.9</v>
+      </c>
+      <c r="C26" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f ca="1">IF(ISTEXT(B26),MAX(D$5:D25)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
     </row>
     <row r="27" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>66.5</v>
-      </c>
-      <c r="C27" s="11">
+        <v>82.28</v>
+      </c>
+      <c r="C27" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f ca="1">IF(ISTEXT(B27),MAX(D$5:D26)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="11" t="str">
+      <c r="F27" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44.66</v>
-      </c>
-      <c r="C28" s="11">
+        <v>82.65</v>
+      </c>
+      <c r="C28" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f ca="1">IF(ISTEXT(B28),MAX(D$5:D27)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="11" t="str">
+      <c r="F28" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
     </row>
     <row r="29" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f ca="1">IF(ISTEXT(B29),MAX(D$5:D28)+1,0)</f>
         <v>5</v>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
     </row>
     <row r="30" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>84.61</v>
-      </c>
-      <c r="C30" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="C30" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f ca="1">IF(ISTEXT(B30),MAX(D$5:D29)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="11" t="str">
+      <c r="F30" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G30" s="22" t="str">
+      <c r="G30" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
     </row>
     <row r="31" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>29.69</v>
-      </c>
-      <c r="C31" s="11">
+        <v>43.29</v>
+      </c>
+      <c r="C31" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f ca="1">IF(ISTEXT(B31),MAX(D$5:D30)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="11" t="str">
+      <c r="F31" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G31" s="22" t="str">
+      <c r="G31" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
     </row>
     <row r="32" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f ca="1">IF(ISTEXT(B32),MAX(D$5:D31)+1,0)</f>
         <v>6</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="11" t="str">
+      <c r="F32" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G32" s="22" t="str">
+      <c r="G32" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f ca="1">IF(ISTEXT(B33),MAX(D$5:D32)+1,0)</f>
         <v>7</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="11" t="str">
+      <c r="F33" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G33" s="22" t="str">
+      <c r="G33" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
     </row>
     <row r="34" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>92.73</v>
-      </c>
-      <c r="C34" s="11">
+        <v>23.28</v>
+      </c>
+      <c r="C34" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f ca="1">IF(ISTEXT(B34),MAX(D$5:D33)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="11" t="str">
+      <c r="F34" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G34" s="22" t="str">
+      <c r="G34" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>31.95</v>
-      </c>
-      <c r="C35" s="11">
+        <v>72.62</v>
+      </c>
+      <c r="C35" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f ca="1">IF(ISTEXT(B35),MAX(D$5:D34)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="11" t="str">
+      <c r="E35" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="11" t="str">
+      <c r="F35" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G35" s="22" t="str">
+      <c r="G35" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>35.39</v>
-      </c>
-      <c r="C36" s="11">
+        <v>79.11</v>
+      </c>
+      <c r="C36" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f ca="1">IF(ISTEXT(B36),MAX(D$5:D35)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="11" t="str">
+      <c r="F36" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G36" s="22" t="str">
+      <c r="G36" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>82.58</v>
-      </c>
-      <c r="C37" s="11">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="C37" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f ca="1">IF(ISTEXT(B37),MAX(D$5:D36)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="11" t="str">
+      <c r="E37" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="11" t="str">
+      <c r="F37" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G37" s="22" t="str">
+      <c r="G37" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>27.94</v>
-      </c>
-      <c r="C38" s="11">
+        <v>61.47</v>
+      </c>
+      <c r="C38" s="10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f ca="1">IF(ISTEXT(B38),MAX(D$5:D37)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="11" t="str">
+      <c r="E38" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="11" t="str">
+      <c r="F38" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G38" s="22" t="str">
+      <c r="G38" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12.84</v>
-      </c>
-      <c r="C39" s="11">
+        <v>20.36</v>
+      </c>
+      <c r="C39" s="10">
         <f t="shared" ref="C39:C54" ca="1" si="9">IF(ISTEXT(B39),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f ca="1">IF(ISTEXT(B39),MAX(D$5:D38)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="str">
+      <c r="E39" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="11" t="str">
+      <c r="F39" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G39" s="22" t="str">
+      <c r="G39" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
     </row>
     <row r="40" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>55.84</v>
-      </c>
-      <c r="C40" s="11">
+        <v>52.26</v>
+      </c>
+      <c r="C40" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f ca="1">IF(ISTEXT(B40),MAX(D$5:D39)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F40" s="11" t="str">
+      <c r="F40" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G40" s="22" t="str">
+      <c r="G40" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
     </row>
     <row r="41" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15.62</v>
-      </c>
-      <c r="C41" s="11">
+        <v>31.94</v>
+      </c>
+      <c r="C41" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <f ca="1">IF(ISTEXT(B41),MAX(D$5:D40)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F41" s="11" t="str">
+      <c r="F41" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G41" s="22" t="str">
+      <c r="G41" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44.62</v>
-      </c>
-      <c r="C42" s="11">
+        <v>42.81</v>
+      </c>
+      <c r="C42" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f ca="1">IF(ISTEXT(B42),MAX(D$5:D41)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="11" t="str">
+      <c r="E42" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F42" s="11" t="str">
+      <c r="F42" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G42" s="22" t="str">
+      <c r="G42" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C43" s="11">
+        <v>49.32</v>
+      </c>
+      <c r="C43" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f ca="1">IF(ISTEXT(B43),MAX(D$5:D42)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="11" t="str">
+      <c r="E43" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F43" s="11" t="str">
+      <c r="F43" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G43" s="22" t="str">
+      <c r="G43" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>80.86</v>
-      </c>
-      <c r="C44" s="11">
+        <v>41.46</v>
+      </c>
+      <c r="C44" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <f ca="1">IF(ISTEXT(B44),MAX(D$5:D43)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F44" s="11" t="str">
+      <c r="F44" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G44" s="22" t="str">
+      <c r="G44" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
     </row>
     <row r="45" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>64.33</v>
-      </c>
-      <c r="C45" s="11">
+        <v>83.61</v>
+      </c>
+      <c r="C45" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f ca="1">IF(ISTEXT(B45),MAX(D$5:D44)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="str">
+      <c r="E45" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F45" s="11" t="str">
+      <c r="F45" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G45" s="22" t="str">
+      <c r="G45" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
     </row>
     <row r="46" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>51.71</v>
-      </c>
-      <c r="C46" s="11">
+        <v>63.16</v>
+      </c>
+      <c r="C46" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f ca="1">IF(ISTEXT(B46),MAX(D$5:D45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="str">
+      <c r="E46" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F46" s="11" t="str">
+      <c r="F46" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G46" s="22" t="str">
+      <c r="G46" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
     </row>
     <row r="47" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>98.99</v>
-      </c>
-      <c r="C47" s="11">
+        <v>73.98</v>
+      </c>
+      <c r="C47" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <f ca="1">IF(ISTEXT(B47),MAX(D$5:D46)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="str">
+      <c r="E47" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F47" s="11" t="str">
+      <c r="F47" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G47" s="22" t="str">
+      <c r="G47" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
     </row>
     <row r="48" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>32.020000000000003</v>
-      </c>
-      <c r="C48" s="11">
+        <v>15.58</v>
+      </c>
+      <c r="C48" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f ca="1">IF(ISTEXT(B48),MAX(D$5:D47)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F48" s="11" t="str">
+      <c r="F48" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G48" s="22" t="str">
+      <c r="G48" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
     </row>
     <row r="49" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>44</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>53.16</v>
-      </c>
-      <c r="C49" s="11">
+        <v>21.39</v>
+      </c>
+      <c r="C49" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <f ca="1">IF(ISTEXT(B49),MAX(D$5:D48)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11" t="str">
+      <c r="E49" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F49" s="11" t="str">
+      <c r="F49" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G49" s="22" t="str">
+      <c r="G49" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
     </row>
     <row r="50" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>28.31</v>
-      </c>
-      <c r="C50" s="11">
+        <v>50.02</v>
+      </c>
+      <c r="C50" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f ca="1">IF(ISTEXT(B50),MAX(D$5:D49)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="11" t="str">
+      <c r="E50" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F50" s="11" t="str">
+      <c r="F50" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G50" s="22" t="str">
+      <c r="G50" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
     </row>
     <row r="51" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>61.88</v>
-      </c>
-      <c r="C51" s="11">
+        <v>41.61</v>
+      </c>
+      <c r="C51" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <f ca="1">IF(ISTEXT(B51),MAX(D$5:D50)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="11" t="str">
+      <c r="E51" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F51" s="11" t="str">
+      <c r="F51" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G51" s="22" t="str">
+      <c r="G51" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
     </row>
     <row r="52" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>50.93</v>
-      </c>
-      <c r="C52" s="11">
+        <v>87.46</v>
+      </c>
+      <c r="C52" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <f ca="1">IF(ISTEXT(B52),MAX(D$5:D51)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="str">
+      <c r="E52" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F52" s="11" t="str">
+      <c r="F52" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G52" s="22" t="str">
+      <c r="G52" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
     </row>
     <row r="53" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>11.95</v>
-      </c>
-      <c r="C53" s="11">
+        <v>56.06</v>
+      </c>
+      <c r="C53" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <f ca="1">IF(ISTEXT(B53),MAX(D$5:D52)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="str">
+      <c r="E53" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F53" s="11" t="str">
+      <c r="F53" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G53" s="22" t="str">
+      <c r="G53" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
     </row>
     <row r="54" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>94.58</v>
-      </c>
-      <c r="C54" s="11">
+        <v>57.1</v>
+      </c>
+      <c r="C54" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <f ca="1">IF(ISTEXT(B54),MAX(D$5:D53)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11" t="str">
+      <c r="E54" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F54" s="11" t="str">
+      <c r="F54" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G54" s="22" t="str">
+      <c r="G54" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
     </row>
     <row r="55" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B55" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10">
         <f t="shared" ref="C55:C70" si="10">IF(ISTEXT(B55),1,0)</f>
         <v>1</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <f ca="1">IF(ISTEXT(B55),MAX(D$5:D54)+1,0)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="11" t="str">
+      <c r="E55" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F55" s="11" t="str">
+      <c r="F55" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G55" s="22" t="str">
+      <c r="G55" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
     </row>
     <row r="56" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>66.790000000000006</v>
-      </c>
-      <c r="C56" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="C56" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <f ca="1">IF(ISTEXT(B56),MAX(D$5:D55)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="11" t="str">
+      <c r="E56" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F56" s="11" t="str">
+      <c r="F56" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G56" s="22" t="str">
+      <c r="G56" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
     </row>
     <row r="57" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>61.24</v>
-      </c>
-      <c r="C57" s="11">
+        <v>98.74</v>
+      </c>
+      <c r="C57" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <f ca="1">IF(ISTEXT(B57),MAX(D$5:D56)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="11" t="str">
+      <c r="E57" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F57" s="11" t="str">
+      <c r="F57" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G57" s="22" t="str">
+      <c r="G57" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
     </row>
     <row r="58" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>39.99</v>
-      </c>
-      <c r="C58" s="11">
+        <v>25.48</v>
+      </c>
+      <c r="C58" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <f ca="1">IF(ISTEXT(B58),MAX(D$5:D57)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="str">
+      <c r="E58" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F58" s="11" t="str">
+      <c r="F58" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G58" s="22" t="str">
+      <c r="G58" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
     </row>
     <row r="59" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>87.2</v>
-      </c>
-      <c r="C59" s="11">
+        <v>9.49</v>
+      </c>
+      <c r="C59" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <f ca="1">IF(ISTEXT(B59),MAX(D$5:D58)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="str">
+      <c r="E59" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F59" s="11" t="str">
+      <c r="F59" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G59" s="22" t="str">
+      <c r="G59" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
     </row>
     <row r="60" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.86</v>
-      </c>
-      <c r="C60" s="11">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="C60" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <f ca="1">IF(ISTEXT(B60),MAX(D$5:D59)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="11" t="str">
+      <c r="E60" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F60" s="11" t="str">
+      <c r="F60" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G60" s="22" t="str">
+      <c r="G60" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
     </row>
     <row r="61" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>92.16</v>
-      </c>
-      <c r="C61" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="C61" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f ca="1">IF(ISTEXT(B61),MAX(D$5:D60)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="str">
+      <c r="E61" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F61" s="11" t="str">
+      <c r="F61" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G61" s="22" t="str">
+      <c r="G61" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
     </row>
     <row r="62" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>38.57</v>
-      </c>
-      <c r="C62" s="11">
+        <v>84.73</v>
+      </c>
+      <c r="C62" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <f ca="1">IF(ISTEXT(B62),MAX(D$5:D61)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="11" t="str">
+      <c r="E62" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F62" s="11" t="str">
+      <c r="F62" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G62" s="22" t="str">
+      <c r="G62" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
     </row>
     <row r="63" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>94.08</v>
-      </c>
-      <c r="C63" s="11">
+        <v>10.74</v>
+      </c>
+      <c r="C63" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <f ca="1">IF(ISTEXT(B63),MAX(D$5:D62)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="11" t="str">
+      <c r="E63" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F63" s="11" t="str">
+      <c r="F63" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G63" s="22" t="str">
+      <c r="G63" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
     </row>
     <row r="64" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>80.19</v>
-      </c>
-      <c r="C64" s="11">
+        <v>48.01</v>
+      </c>
+      <c r="C64" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <f ca="1">IF(ISTEXT(B64),MAX(D$5:D63)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E64" s="11" t="str">
+      <c r="E64" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F64" s="11" t="str">
+      <c r="F64" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G64" s="22" t="str">
+      <c r="G64" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
     </row>
     <row r="65" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44.36</v>
-      </c>
-      <c r="C65" s="11">
+        <v>58.15</v>
+      </c>
+      <c r="C65" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <f ca="1">IF(ISTEXT(B65),MAX(D$5:D64)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11" t="str">
+      <c r="E65" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F65" s="11" t="str">
+      <c r="F65" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G65" s="22" t="str">
+      <c r="G65" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
     </row>
     <row r="66" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>11.25</v>
-      </c>
-      <c r="C66" s="11">
+        <v>56.58</v>
+      </c>
+      <c r="C66" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <f ca="1">IF(ISTEXT(B66),MAX(D$5:D65)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11" t="str">
+      <c r="E66" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F66" s="11" t="str">
+      <c r="F66" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G66" s="22" t="str">
+      <c r="G66" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
     </row>
     <row r="67" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>79.95</v>
-      </c>
-      <c r="C67" s="11">
+        <v>72.97</v>
+      </c>
+      <c r="C67" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <f ca="1">IF(ISTEXT(B67),MAX(D$5:D66)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11" t="str">
+      <c r="E67" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F67" s="11" t="str">
+      <c r="F67" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G67" s="22" t="str">
+      <c r="G67" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
     </row>
     <row r="68" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>11.13</v>
-      </c>
-      <c r="C68" s="11">
+        <v>82.95</v>
+      </c>
+      <c r="C68" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <f ca="1">IF(ISTEXT(B68),MAX(D$5:D67)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11" t="str">
+      <c r="E68" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F68" s="11" t="str">
+      <c r="F68" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G68" s="22" t="str">
+      <c r="G68" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
     </row>
     <row r="69" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>22.41</v>
-      </c>
-      <c r="C69" s="11">
+        <v>97.7</v>
+      </c>
+      <c r="C69" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <f ca="1">IF(ISTEXT(B69),MAX(D$5:D68)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="str">
+      <c r="E69" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F69" s="11" t="str">
+      <c r="F69" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G69" s="22" t="str">
+      <c r="G69" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
     </row>
     <row r="70" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>25.87</v>
-      </c>
-      <c r="C70" s="11">
+        <v>70.48</v>
+      </c>
+      <c r="C70" s="10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <f ca="1">IF(ISTEXT(B70),MAX(D$5:D69)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="str">
+      <c r="E70" s="10" t="str">
         <f t="shared" ref="E70:E105" ca="1" si="11">IF(ROW()-$A$5&lt;=$C$5,ROW()-$A$5,"")</f>
         <v/>
       </c>
-      <c r="F70" s="11" t="str">
+      <c r="F70" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G70" s="22" t="str">
+      <c r="G70" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
     </row>
     <row r="71" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <f t="shared" ref="A71:A109" ca="1" si="12">IF(ISNUMBER(C71),ROW()-$A$5,"")</f>
         <v>66</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <f t="shared" ref="B71:B105" ca="1" si="13">RANDBETWEEN(1,100)+RANDBETWEEN(1,100)/100</f>
-        <v>68.319999999999993</v>
-      </c>
-      <c r="C71" s="11">
+        <v>80.89</v>
+      </c>
+      <c r="C71" s="10">
         <f t="shared" ref="C71:C86" ca="1" si="14">IF(ISTEXT(B71),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <f ca="1">IF(ISTEXT(B71),MAX(D$5:D70)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="str">
+      <c r="E71" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F71" s="11" t="str">
+      <c r="F71" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G71" s="22" t="str">
+      <c r="G71" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
     </row>
     <row r="72" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="A72" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>67</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>87.28</v>
-      </c>
-      <c r="C72" s="11">
+        <v>54.74</v>
+      </c>
+      <c r="C72" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <f ca="1">IF(ISTEXT(B72),MAX(D$5:D71)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="11" t="str">
+      <c r="E72" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F72" s="11" t="str">
+      <c r="F72" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G72" s="22" t="str">
+      <c r="G72" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H72" s="2"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
     </row>
     <row r="73" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="A73" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>68</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>6.44</v>
-      </c>
-      <c r="C73" s="11">
+        <v>75.03</v>
+      </c>
+      <c r="C73" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <f ca="1">IF(ISTEXT(B73),MAX(D$5:D72)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="11" t="str">
+      <c r="E73" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F73" s="11" t="str">
+      <c r="F73" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="G73" s="22" t="str">
+      <c r="G73" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
     </row>
     <row r="74" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>69</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>48.16</v>
-      </c>
-      <c r="C74" s="11">
+        <v>27.52</v>
+      </c>
+      <c r="C74" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <f ca="1">IF(ISTEXT(B74),MAX(D$5:D73)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="11" t="str">
+      <c r="E74" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F74" s="11" t="str">
+      <c r="F74" s="10" t="str">
         <f t="shared" ref="F74:F105" ca="1" si="15">IF(ISNUMBER(E74),MATCH(E74,$D$6:$D$175,0),"")</f>
         <v/>
       </c>
-      <c r="G74" s="22" t="str">
+      <c r="G74" s="21" t="str">
         <f t="shared" ref="G74:G105" ca="1" si="16">IF(ISNUMBER(E74),INDEX($B$6:$D$175,F74,G$5),"")</f>
         <v/>
       </c>
       <c r="H74" s="2"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
     </row>
     <row r="75" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>70</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>30.71</v>
-      </c>
-      <c r="C75" s="11">
+        <v>21.45</v>
+      </c>
+      <c r="C75" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <f ca="1">IF(ISTEXT(B75),MAX(D$5:D74)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="11" t="str">
+      <c r="E75" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F75" s="11" t="str">
+      <c r="F75" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G75" s="22" t="str">
+      <c r="G75" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
     </row>
     <row r="76" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+      <c r="A76" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>71</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>6.84</v>
-      </c>
-      <c r="C76" s="11">
+        <v>19.16</v>
+      </c>
+      <c r="C76" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f ca="1">IF(ISTEXT(B76),MAX(D$5:D75)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="11" t="str">
+      <c r="E76" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F76" s="11" t="str">
+      <c r="F76" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G76" s="22" t="str">
+      <c r="G76" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
     </row>
     <row r="77" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>72</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>8.11</v>
-      </c>
-      <c r="C77" s="11">
+        <v>45.63</v>
+      </c>
+      <c r="C77" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <f ca="1">IF(ISTEXT(B77),MAX(D$5:D76)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="11" t="str">
+      <c r="E77" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F77" s="11" t="str">
+      <c r="F77" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G77" s="22" t="str">
+      <c r="G77" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
     </row>
     <row r="78" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <f ca="1">IF(ISTEXT(B78),MAX(D$5:D77)+1,0)</f>
         <v>9</v>
       </c>
-      <c r="E78" s="11" t="str">
+      <c r="E78" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F78" s="11" t="str">
+      <c r="F78" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G78" s="22" t="str">
+      <c r="G78" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H78" s="2"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
     </row>
     <row r="79" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+      <c r="A79" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>74</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>34.07</v>
-      </c>
-      <c r="C79" s="11">
+        <v>23.21</v>
+      </c>
+      <c r="C79" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="10">
         <f ca="1">IF(ISTEXT(B79),MAX(D$5:D78)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="11" t="str">
+      <c r="E79" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F79" s="11" t="str">
+      <c r="F79" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G79" s="22" t="str">
+      <c r="G79" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H79" s="2"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
     </row>
     <row r="80" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+      <c r="A80" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>75</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>34.340000000000003</v>
-      </c>
-      <c r="C80" s="11">
+        <v>69.42</v>
+      </c>
+      <c r="C80" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="10">
         <f ca="1">IF(ISTEXT(B80),MAX(D$5:D79)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="11" t="str">
+      <c r="E80" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F80" s="11" t="str">
+      <c r="F80" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G80" s="22" t="str">
+      <c r="G80" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H80" s="2"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
     </row>
     <row r="81" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>76</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>7.48</v>
-      </c>
-      <c r="C81" s="11">
+        <v>9.81</v>
+      </c>
+      <c r="C81" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="10">
         <f ca="1">IF(ISTEXT(B81),MAX(D$5:D80)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E81" s="11" t="str">
+      <c r="E81" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F81" s="11" t="str">
+      <c r="F81" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G81" s="22" t="str">
+      <c r="G81" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H81" s="2"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
     </row>
     <row r="82" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+      <c r="A82" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>77</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>10.87</v>
-      </c>
-      <c r="C82" s="11">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="C82" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="10">
         <f ca="1">IF(ISTEXT(B82),MAX(D$5:D81)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E82" s="11" t="str">
+      <c r="E82" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F82" s="11" t="str">
+      <c r="F82" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G82" s="22" t="str">
+      <c r="G82" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H82" s="2"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
     </row>
     <row r="83" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>78</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>93.78</v>
-      </c>
-      <c r="C83" s="11">
+        <v>15.09</v>
+      </c>
+      <c r="C83" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="10">
         <f ca="1">IF(ISTEXT(B83),MAX(D$5:D82)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="11" t="str">
+      <c r="E83" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F83" s="11" t="str">
+      <c r="F83" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G83" s="22" t="str">
+      <c r="G83" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
     </row>
     <row r="84" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>79</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>40.93</v>
-      </c>
-      <c r="C84" s="11">
+        <v>36.14</v>
+      </c>
+      <c r="C84" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="10">
         <f ca="1">IF(ISTEXT(B84),MAX(D$5:D83)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E84" s="11" t="str">
+      <c r="E84" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F84" s="11" t="str">
+      <c r="F84" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G84" s="22" t="str">
+      <c r="G84" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
     </row>
     <row r="85" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>80</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>97.93</v>
-      </c>
-      <c r="C85" s="11">
+        <v>23.68</v>
+      </c>
+      <c r="C85" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="10">
         <f ca="1">IF(ISTEXT(B85),MAX(D$5:D84)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E85" s="11" t="str">
+      <c r="E85" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F85" s="11" t="str">
+      <c r="F85" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G85" s="22" t="str">
+      <c r="G85" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
     </row>
     <row r="86" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="A86" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>81</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>12.22</v>
-      </c>
-      <c r="C86" s="11">
+        <v>71</v>
+      </c>
+      <c r="C86" s="10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="10">
         <f ca="1">IF(ISTEXT(B86),MAX(D$5:D85)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="11" t="str">
+      <c r="E86" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F86" s="11" t="str">
+      <c r="F86" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G86" s="22" t="str">
+      <c r="G86" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H86" s="2"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
     </row>
     <row r="87" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>82</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>82.13</v>
-      </c>
-      <c r="C87" s="11">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="C87" s="10">
         <f t="shared" ref="C87:C102" ca="1" si="17">IF(ISTEXT(B87),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="10">
         <f ca="1">IF(ISTEXT(B87),MAX(D$5:D86)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E87" s="11" t="str">
+      <c r="E87" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F87" s="11" t="str">
+      <c r="F87" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G87" s="22" t="str">
+      <c r="G87" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
     </row>
     <row r="88" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>83</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>15.37</v>
-      </c>
-      <c r="C88" s="11">
+        <v>98.21</v>
+      </c>
+      <c r="C88" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="10">
         <f ca="1">IF(ISTEXT(B88),MAX(D$5:D87)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E88" s="11" t="str">
+      <c r="E88" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F88" s="11" t="str">
+      <c r="F88" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G88" s="22" t="str">
+      <c r="G88" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H88" s="2"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
     </row>
     <row r="89" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+      <c r="A89" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>7.97</v>
-      </c>
-      <c r="C89" s="11">
+        <v>82.67</v>
+      </c>
+      <c r="C89" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="10">
         <f ca="1">IF(ISTEXT(B89),MAX(D$5:D88)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E89" s="11" t="str">
+      <c r="E89" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F89" s="11" t="str">
+      <c r="F89" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G89" s="22" t="str">
+      <c r="G89" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H89" s="2"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
     </row>
     <row r="90" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+      <c r="A90" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>85</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>18.760000000000002</v>
-      </c>
-      <c r="C90" s="11">
+        <v>22.48</v>
+      </c>
+      <c r="C90" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="10">
         <f ca="1">IF(ISTEXT(B90),MAX(D$5:D89)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E90" s="11" t="str">
+      <c r="E90" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F90" s="11" t="str">
+      <c r="F90" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G90" s="22" t="str">
+      <c r="G90" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H90" s="2"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
     </row>
     <row r="91" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>86</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>79.400000000000006</v>
-      </c>
-      <c r="C91" s="11">
+        <v>73.45</v>
+      </c>
+      <c r="C91" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="10">
         <f ca="1">IF(ISTEXT(B91),MAX(D$5:D90)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="11" t="str">
+      <c r="E91" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F91" s="11" t="str">
+      <c r="F91" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G91" s="22" t="str">
+      <c r="G91" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H91" s="2"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
     </row>
     <row r="92" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <f t="shared" si="12"/>
         <v>87</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="10">
         <f ca="1">IF(ISTEXT(B92),MAX(D$5:D91)+1,0)</f>
         <v>10</v>
       </c>
-      <c r="E92" s="11" t="str">
+      <c r="E92" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F92" s="11" t="str">
+      <c r="F92" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G92" s="22" t="str">
+      <c r="G92" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H92" s="2"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
     </row>
     <row r="93" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <f t="shared" si="12"/>
         <v>88</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="10">
         <f ca="1">IF(ISTEXT(B93),MAX(D$5:D92)+1,0)</f>
         <v>11</v>
       </c>
-      <c r="E93" s="11" t="str">
+      <c r="E93" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F93" s="11" t="str">
+      <c r="F93" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G93" s="22" t="str">
+      <c r="G93" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H93" s="2"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
     </row>
     <row r="94" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+      <c r="A94" s="16">
         <f t="shared" si="12"/>
         <v>89</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="10">
         <f ca="1">IF(ISTEXT(B94),MAX(D$5:D93)+1,0)</f>
         <v>12</v>
       </c>
-      <c r="E94" s="11" t="str">
+      <c r="E94" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F94" s="11" t="str">
+      <c r="F94" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G94" s="22" t="str">
+      <c r="G94" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H94" s="2"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
     </row>
     <row r="95" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>90</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>77.98</v>
-      </c>
-      <c r="C95" s="11">
+        <v>34.01</v>
+      </c>
+      <c r="C95" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="10">
         <f ca="1">IF(ISTEXT(B95),MAX(D$5:D94)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E95" s="11" t="str">
+      <c r="E95" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F95" s="11" t="str">
+      <c r="F95" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G95" s="22" t="str">
+      <c r="G95" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H95" s="2"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="21"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
     </row>
     <row r="96" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+      <c r="A96" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>91</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>16.62</v>
-      </c>
-      <c r="C96" s="11">
+        <v>53.15</v>
+      </c>
+      <c r="C96" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="10">
         <f ca="1">IF(ISTEXT(B96),MAX(D$5:D95)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E96" s="11" t="str">
+      <c r="E96" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F96" s="11" t="str">
+      <c r="F96" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G96" s="22" t="str">
+      <c r="G96" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H96" s="2"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
     </row>
     <row r="97" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="A97" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>92</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>46.65</v>
-      </c>
-      <c r="C97" s="11">
+        <v>53.13</v>
+      </c>
+      <c r="C97" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="10">
         <f ca="1">IF(ISTEXT(B97),MAX(D$5:D96)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="11" t="str">
+      <c r="E97" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F97" s="11" t="str">
+      <c r="F97" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G97" s="22" t="str">
+      <c r="G97" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H97" s="2"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
     </row>
     <row r="98" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+      <c r="A98" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>93</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>49.92</v>
-      </c>
-      <c r="C98" s="11">
+        <v>31.43</v>
+      </c>
+      <c r="C98" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="10">
         <f ca="1">IF(ISTEXT(B98),MAX(D$5:D97)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E98" s="11" t="str">
+      <c r="E98" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F98" s="11" t="str">
+      <c r="F98" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G98" s="22" t="str">
+      <c r="G98" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H98" s="2"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
     </row>
     <row r="99" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>94</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>18.64</v>
-      </c>
-      <c r="C99" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="C99" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="10">
         <f ca="1">IF(ISTEXT(B99),MAX(D$5:D98)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E99" s="11" t="str">
+      <c r="E99" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F99" s="11" t="str">
+      <c r="F99" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G99" s="22" t="str">
+      <c r="G99" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H99" s="2"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="21"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
     </row>
     <row r="100" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+      <c r="A100" s="16">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="10">
         <f ca="1">IF(ISTEXT(B100),MAX(D$5:D99)+1,0)</f>
         <v>13</v>
       </c>
-      <c r="E100" s="11" t="str">
+      <c r="E100" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F100" s="11" t="str">
+      <c r="F100" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G100" s="22" t="str">
+      <c r="G100" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H100" s="2"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
     </row>
     <row r="101" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>96</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>25.87</v>
-      </c>
-      <c r="C101" s="11">
+        <v>2.35</v>
+      </c>
+      <c r="C101" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="10">
         <f ca="1">IF(ISTEXT(B101),MAX(D$5:D100)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E101" s="11" t="str">
+      <c r="E101" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F101" s="11" t="str">
+      <c r="F101" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G101" s="22" t="str">
+      <c r="G101" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H101" s="2"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
     </row>
     <row r="102" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>97</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>35.83</v>
-      </c>
-      <c r="C102" s="11">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="C102" s="10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="10">
         <f ca="1">IF(ISTEXT(B102),MAX(D$5:D101)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E102" s="11" t="str">
+      <c r="E102" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F102" s="11" t="str">
+      <c r="F102" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G102" s="22" t="str">
+      <c r="G102" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H102" s="2"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="21"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
     </row>
     <row r="103" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="A103" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>98</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>13.42</v>
-      </c>
-      <c r="C103" s="11">
+        <v>72.73</v>
+      </c>
+      <c r="C103" s="10">
         <f t="shared" ref="C103:C105" ca="1" si="18">IF(ISTEXT(B103),1,0)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="10">
         <f ca="1">IF(ISTEXT(B103),MAX(D$5:D102)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="11" t="str">
+      <c r="E103" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F103" s="11" t="str">
+      <c r="F103" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G103" s="22" t="str">
+      <c r="G103" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H103" s="2"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
     </row>
     <row r="104" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+      <c r="A104" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>99</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>5.44</v>
-      </c>
-      <c r="C104" s="11">
+        <v>56.93</v>
+      </c>
+      <c r="C104" s="10">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="10">
         <f ca="1">IF(ISTEXT(B104),MAX(D$5:D103)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="11" t="str">
+      <c r="E104" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F104" s="11" t="str">
+      <c r="F104" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G104" s="22" t="str">
+      <c r="G104" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
     </row>
     <row r="105" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+      <c r="A105" s="16">
         <f t="shared" ca="1" si="12"/>
         <v>100</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>4.33</v>
-      </c>
-      <c r="C105" s="11">
+        <v>9.34</v>
+      </c>
+      <c r="C105" s="10">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="10">
         <f ca="1">IF(ISTEXT(B105),MAX(D$5:D104)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="E105" s="11" t="str">
+      <c r="E105" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F105" s="11" t="str">
+      <c r="F105" s="10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="G105" s="22" t="str">
+      <c r="G105" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
     </row>
     <row r="106" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="str">
+      <c r="A106" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="12"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="11"/>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="str">
+      <c r="A107" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="12"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="str">
+      <c r="A108" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="str">
+      <c r="A109" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="12"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="12"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="12"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="12"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="12"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="11"/>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="12"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="12"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="12"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="12"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
